--- a/Payment Form.xlsx
+++ b/Payment Form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MEGA\Code\Accounting\Payment-Form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AA8B08-A6AB-4032-A33E-4642A448A5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB4A62C-168C-4A38-ACDD-570C0F5F0487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5B01E1CE-78F0-4FAF-84C2-F8F1823A67E7}"/>
   </bookViews>
@@ -21,8 +21,8 @@
     <definedName name="L_PayCenter">T_PayCenter[مرکز پرداخت]</definedName>
     <definedName name="P_Capacity">Data!$D$3</definedName>
     <definedName name="P_Name">Data!$B$3</definedName>
-    <definedName name="P_Number">Form!$F$7</definedName>
-    <definedName name="P_Remaining">Form!$F$9</definedName>
+    <definedName name="P_Number" localSheetId="0">Form!$F$7</definedName>
+    <definedName name="P_Remaining" localSheetId="0">Form!$F$9</definedName>
     <definedName name="Slicer_مرکز_پرداخت">#N/A</definedName>
     <definedName name="Slicer_مرکز_هزینه">#N/A</definedName>
   </definedNames>
@@ -1393,7 +1393,7 @@
   <dimension ref="B2:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1413,7 +1413,7 @@
     <row r="2" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="20" t="str">
         <f>_xlfn.CONCAT("تنخواه شماره ", P_Number, " ", P_Name)</f>
-        <v>تنخواه شماره 2 محمد محمدی</v>
+        <v>تنخواه شماره 1 محمد محمدی</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -1476,7 +1476,7 @@
         <v>27</v>
       </c>
       <c r="F7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6" t="s">

--- a/Payment Form.xlsx
+++ b/Payment Form.xlsx
@@ -8,23 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MEGA\Code\Accounting\Payment-Form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB4A62C-168C-4A38-ACDD-570C0F5F0487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47BFED0-A5D4-4D40-B9B2-7EA3D9072A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5B01E1CE-78F0-4FAF-84C2-F8F1823A67E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5B01E1CE-78F0-4FAF-84C2-F8F1823A67E7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Form" sheetId="1" r:id="rId1"/>
+    <sheet name="خام" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="L_CostCenter" localSheetId="2">T_CostCenter[مرکز هزینه]</definedName>
     <definedName name="L_CostCenter">T_CostCenter[مرکز هزینه]</definedName>
+    <definedName name="L_PayCenter" localSheetId="2">T_PayCenter[مرکز پرداخت]</definedName>
     <definedName name="L_PayCenter">T_PayCenter[مرکز پرداخت]</definedName>
     <definedName name="P_Capacity">Data!$D$3</definedName>
     <definedName name="P_Name">Data!$B$3</definedName>
-    <definedName name="P_Number" localSheetId="0">Form!$F$7</definedName>
-    <definedName name="P_Remaining" localSheetId="0">Form!$F$9</definedName>
+    <definedName name="P_Number" localSheetId="2">'1'!$F$7</definedName>
+    <definedName name="P_Number" localSheetId="0">خام!$F$7</definedName>
+    <definedName name="P_Remaining" localSheetId="2">'1'!$F$9</definedName>
+    <definedName name="P_Remaining" localSheetId="0">خام!$F$9</definedName>
     <definedName name="Slicer_مرکز_پرداخت">#N/A</definedName>
+    <definedName name="Slicer_مرکز_پرداخت1">#N/A</definedName>
     <definedName name="Slicer_مرکز_هزینه">#N/A</definedName>
+    <definedName name="Slicer_مرکز_هزینه1">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +40,10 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId3"/>
         <x14:slicerCache r:id="rId4"/>
+        <x14:slicerCache r:id="rId5"/>
+        <x14:slicerCache r:id="rId6"/>
+        <x14:slicerCache r:id="rId7"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -54,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>مرکز هزینه</t>
   </si>
@@ -104,18 +113,6 @@
     <t>کارت 3</t>
   </si>
   <si>
-    <t>دارد</t>
-  </si>
-  <si>
-    <t>SO-101</t>
-  </si>
-  <si>
-    <t>پیک</t>
-  </si>
-  <si>
-    <t>توضیحات خاصی ندارم، به امید موفقیت</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -151,46 +148,17 @@
     <t xml:space="preserve"> تا تاریخ</t>
   </si>
   <si>
-    <t>SO-102</t>
-  </si>
-  <si>
-    <t>S)-103</t>
-  </si>
-  <si>
-    <t>نون</t>
-  </si>
-  <si>
-    <t>پنیر</t>
-  </si>
-  <si>
-    <t>خیار</t>
-  </si>
-  <si>
-    <t>گوجه</t>
-  </si>
-  <si>
-    <t>سبزی</t>
-  </si>
-  <si>
-    <t>بمب اتم</t>
-  </si>
-  <si>
-    <t>هزینه قاتل بروسلی</t>
-  </si>
-  <si>
-    <t>مام برای زیر بغل مار</t>
-  </si>
-  <si>
-    <t>برای صبحانه ابوطالبی</t>
+    <t>کد مرکز هزینه</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="42" formatCode="_-* #,##0&quot;ريال&quot;_-;\-* #,##0&quot;ريال&quot;_-;_-* &quot;-&quot;&quot;ريال&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="##00\ &quot;/&quot;\ 00\ &quot;/&quot;\ 00"/>
+    <numFmt numFmtId="165" formatCode="&quot;SO-&quot;0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -368,7 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -442,44 +410,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
+  <dxfs count="52">
     <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="##00\ &quot;/&quot;\ 00\ &quot;/&quot;\ 00"/>
@@ -488,11 +433,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="32" formatCode="_-* #,##0&quot;ريال&quot;_-;\-* #,##0&quot;ريال&quot;_-;_-* &quot;-&quot;&quot;ريال&quot;_-;_-@_-"/>
@@ -502,17 +449,92 @@
     <dxf>
       <numFmt numFmtId="32" formatCode="_-* #,##0&quot;ريال&quot;_-;\-* #,##0&quot;ريال&quot;_-;_-* &quot;-&quot;&quot;ريال&quot;_-;_-@_-"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;SO-&quot;0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="32" formatCode="_-* #,##0&quot;ريال&quot;_-;\-* #,##0&quot;ريال&quot;_-;_-* &quot;-&quot;&quot;ريال&quot;_-;_-@_-"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="##00\ &quot;/&quot;\ 00\ &quot;/&quot;\ 00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -521,10 +543,20 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="32" formatCode="_-* #,##0&quot;ريال&quot;_-;\-* #,##0&quot;ريال&quot;_-;_-* &quot;-&quot;&quot;ريال&quot;_-;_-@_-"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;SO-&quot;0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -537,12 +569,25 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -597,8 +642,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="SlicerStyleDark3 2" pivot="0" table="0" count="10" xr9:uid="{90B7F785-C022-424E-981B-361DA17BE15B}">
-      <tableStyleElement type="wholeTable" dxfId="29"/>
-      <tableStyleElement type="headerRow" dxfId="28"/>
+      <tableStyleElement type="wholeTable" dxfId="51"/>
+      <tableStyleElement type="headerRow" dxfId="50"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -867,13 +912,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>348975</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>37875</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
@@ -945,13 +990,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>958575</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>2266950</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>37875</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
@@ -1022,6 +1067,167 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>348975</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>37875</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="مرکز هزینه 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CFE4DA3-225C-42E3-9321-3AF9FF0BC4FE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="مرکز هزینه 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11233718325" y="5667375"/>
+              <a:ext cx="2880000" cy="1800000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fa-IR" sz="1100"/>
+                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can't be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>958575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2266950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>37875</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="مرکز پرداخت 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F419235-315E-4955-A7AF-3B2120D1644C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="مرکز پرداخت 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11230117875" y="5667375"/>
+              <a:ext cx="2880000" cy="1800000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fa-IR" sz="1100"/>
+                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can't be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_مرکز_هزینه" xr10:uid="{3FFD7973-9DEB-4636-ACE8-0BF4B48C25F1}" sourceName="مرکز هزینه">
   <extLst>
@@ -1042,6 +1248,26 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_مرکز_هزینه1" xr10:uid="{9AE09836-9962-408B-8998-E23C4839E7AA}" sourceName="مرکز هزینه">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="4" column="4"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_مرکز_پرداخت1" xr10:uid="{C25CE63B-C0E7-4CC5-B460-A2C9F320015E}" sourceName="مرکز پرداخت">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="4" column="7"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="مرکز هزینه" xr10:uid="{A7461666-BE0D-48FE-9A20-B5EE18E24AC2}" cache="Slicer_مرکز_هزینه" caption="مرکز هزینه" columnCount="2" style="SlicerStyleDark3 2" rowHeight="241300"/>
@@ -1049,44 +1275,72 @@
 </slicers>
 </file>
 
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="مرکز هزینه 1" xr10:uid="{ACEDD65A-268B-4AE0-9CC4-8D897E1F5AD1}" cache="Slicer_مرکز_هزینه1" caption="مرکز هزینه" columnCount="2" style="SlicerStyleDark3 2" rowHeight="241300"/>
+  <slicer name="مرکز پرداخت 1" xr10:uid="{83BFA6B2-3CDD-4075-BC17-9370E69B2C26}" cache="Slicer_مرکز_پرداخت1" caption="مرکز پرداخت" columnCount="2" style="SlicerStyleDark3 2" rowHeight="241300"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64320A0B-34F3-48CF-8F8B-1F25C6989E9A}" name="T_Form" displayName="T_Form" ref="B12:J22" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26" totalsRowDxfId="25">
-  <autoFilter ref="B12:J21" xr:uid="{64320A0B-34F3-48CF-8F8B-1F25C6989E9A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64320A0B-34F3-48CF-8F8B-1F25C6989E9A}" name="T_Form" displayName="T_Form" ref="B12:J14" totalsRowCount="1" headerRowDxfId="49" dataDxfId="48" totalsRowDxfId="47">
+  <autoFilter ref="B12:J13" xr:uid="{64320A0B-34F3-48CF-8F8B-1F25C6989E9A}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{65A156B0-1275-4473-AC0A-D7936E29AEC5}" name="ردیف" totalsRowLabel="Total" dataDxfId="24" totalsRowDxfId="23">
+    <tableColumn id="1" xr3:uid="{65A156B0-1275-4473-AC0A-D7936E29AEC5}" name="ردیف" totalsRowLabel="Total" dataDxfId="39" totalsRowDxfId="30">
       <calculatedColumnFormula>ROW()-12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{80885EA4-B05F-4345-8C8A-C0616EBCD821}" name="منابع" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{D1679CED-3B29-4E28-874B-05A2A7607F01}" name="مرکز منابع" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{8836605B-1968-48CE-90BB-A9DD8523175D}" name="مرکز هزینه" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{53D7CA20-3A6F-4E16-9EED-C0C70E012F3F}" name="شرح" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{7DE9F6C6-6374-418A-A2C9-8DF3816F4B5B}" name="مبلغ" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{64375F3B-3A5A-41F8-8B9D-048B940F96C7}" name="مرکز پرداخت" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{257C4704-E6E8-4EF5-BA78-61383B2579A7}" name="تاریخ" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{93ED9E9D-CC42-40A2-8BF9-E05C7E5AA265}" name="توضیحات" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{80885EA4-B05F-4345-8C8A-C0616EBCD821}" name="منابع" dataDxfId="38" totalsRowDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{D1679CED-3B29-4E28-874B-05A2A7607F01}" name="مرکز منابع" dataDxfId="37" totalsRowDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{8836605B-1968-48CE-90BB-A9DD8523175D}" name="مرکز هزینه" dataDxfId="36" totalsRowDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{53D7CA20-3A6F-4E16-9EED-C0C70E012F3F}" name="شرح" dataDxfId="35" totalsRowDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{7DE9F6C6-6374-418A-A2C9-8DF3816F4B5B}" name="مبلغ" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{64375F3B-3A5A-41F8-8B9D-048B940F96C7}" name="مرکز پرداخت" dataDxfId="33" totalsRowDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{257C4704-E6E8-4EF5-BA78-61383B2579A7}" name="تاریخ" dataDxfId="32" totalsRowDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{93ED9E9D-CC42-40A2-8BF9-E05C7E5AA265}" name="توضیحات" dataDxfId="31" totalsRowDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BB30E27-58C2-43D2-87D2-773B8F0A2F64}" name="T_CostCenter" displayName="T_CostCenter" ref="F2:F5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="F2:F5" xr:uid="{7BB30E27-58C2-43D2-87D2-773B8F0A2F64}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{7D35F201-6CB2-43A8-B7FA-E64E938C4098}" name="مرکز هزینه" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BB30E27-58C2-43D2-87D2-773B8F0A2F64}" name="T_CostCenter" displayName="T_CostCenter" ref="F2:G5" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+  <autoFilter ref="F2:G5" xr:uid="{7BB30E27-58C2-43D2-87D2-773B8F0A2F64}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{7D35F201-6CB2-43A8-B7FA-E64E938C4098}" name="مرکز هزینه" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{32E10A20-CC83-42C1-A6D8-F8096C349A6D}" name="کد مرکز هزینه" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3682ACCC-F8F5-4380-A027-DC10C7137837}" name="T_PayCenter" displayName="T_PayCenter" ref="H2:I5" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="H2:I5" xr:uid="{3682ACCC-F8F5-4380-A027-DC10C7137837}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3682ACCC-F8F5-4380-A027-DC10C7137837}" name="T_PayCenter" displayName="T_PayCenter" ref="I2:J5" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="I2:J5" xr:uid="{3682ACCC-F8F5-4380-A027-DC10C7137837}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9B5E5DC6-7A82-46E6-8514-C7AA2085504F}" name="مرکز پرداخت" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{DADA1AD2-C380-42DF-A895-A642C13E76B7}" name="توضیحات" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9B5E5DC6-7A82-46E6-8514-C7AA2085504F}" name="مرکز پرداخت" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{DADA1AD2-C380-42DF-A895-A642C13E76B7}" name="توضیحات" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7B78A348-7FA8-4141-89E4-1F9E6C02A0A8}" name="T_Form5" displayName="T_Form5" ref="B12:J14" totalsRowCount="1" headerRowDxfId="20" dataDxfId="19" totalsRowDxfId="18">
+  <autoFilter ref="B12:J13" xr:uid="{64320A0B-34F3-48CF-8F8B-1F25C6989E9A}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{4BDD94F4-A93F-4C71-8A4F-694E5328FC1C}" name="ردیف" totalsRowLabel="Total" dataDxfId="16" totalsRowDxfId="17">
+      <calculatedColumnFormula>ROW()-12</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{2D4FC519-686E-48E5-81FF-2881F2596F46}" name="منابع" dataDxfId="14" totalsRowDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{1DB7A23B-86A8-4271-BC28-0D61A3EB01E1}" name="مرکز منابع" dataDxfId="12" totalsRowDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{716D2FB6-9FC8-49D9-BA0C-7CF3CB48F105}" name="مرکز هزینه" dataDxfId="10" totalsRowDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{EAC01118-03E8-485D-BC1E-592241F41E82}" name="شرح" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{E105493C-F686-4A2A-BE9F-C4E8C4521EBA}" name="مبلغ" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{216432CD-3BF8-4A6B-9270-BCA3EE3E889D}" name="مرکز پرداخت" dataDxfId="4" totalsRowDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{C8AB36BB-891B-4377-89C9-0E8951E768B8}" name="تاریخ" dataDxfId="2" totalsRowDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{B0030CA1-BBF3-45B5-95F3-BC88BBED4671}" name="توضیحات" dataDxfId="0" totalsRowDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1390,9 +1644,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:J41"/>
+  <dimension ref="B2:J33"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1413,7 +1667,7 @@
     <row r="2" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="20" t="str">
         <f>_xlfn.CONCAT("تنخواه شماره ", P_Number, " ", P_Name)</f>
-        <v>تنخواه شماره 1 محمد محمدی</v>
+        <v>تنخواه شماره 0 محمد محمدی</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -1473,18 +1727,16 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="8">
-        <v>14030513</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I7" s="8"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1503,18 +1755,14 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="9">
-        <v>3000000</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F9" s="9"/>
       <c r="G9" s="5"/>
       <c r="H9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="8">
-        <v>14030520</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I9" s="8"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1570,361 +1818,223 @@
     </row>
     <row r="13" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11">
-        <f t="shared" ref="B13:B21" si="0">ROW()-12</f>
+        <f t="shared" ref="B13" si="0">ROW()-12</f>
         <v>1</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="13">
+        <f>SUBTOTAL(109,T_Form[مبلغ])</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="14">
-        <v>14030514</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="13">
-        <v>2000000</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="14">
-        <v>14030515</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="13">
-        <v>3000000</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="14">
-        <v>14030515</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="13">
-        <v>4000000</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="14">
-        <v>14030515</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="13">
-        <v>5000000</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="14">
-        <v>14030515</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="13">
-        <v>6000000</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="14">
-        <v>14030515</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>41</v>
-      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="11">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="13">
-        <v>7000000</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="14">
-        <v>14030517</v>
-      </c>
-      <c r="J19" s="12"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="13">
-        <v>8000000</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="14">
-        <v>14030518</v>
-      </c>
-      <c r="J20" s="12"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="13">
-        <v>9000000</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="14">
-        <v>14030518</v>
-      </c>
-      <c r="J21" s="12"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
     </row>
     <row r="22" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="13">
-        <f>SUBTOTAL(109,T_Form[مبلغ])</f>
-        <v>45000000</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
     </row>
     <row r="23" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="22">
+        <f>(SUM(T_Form[مبلغ]) + P_Remaining) / P_Capacity</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="23">
+        <f>T_Form[[#Totals],[مبلغ]]</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="2"/>
@@ -1939,14 +2049,9 @@
     </row>
     <row r="32" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="2"/>
-      <c r="C32" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="22">
-        <f>(SUM(T_Form[مبلغ]) + P_Remaining) / P_Capacity</f>
-        <v>0.96</v>
-      </c>
-      <c r="E32" s="22"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1955,119 +2060,26 @@
     </row>
     <row r="33" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="2"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="2"/>
-      <c r="C37" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="23">
-        <f>T_Form[[#Totals],[مبلغ]]</f>
-        <v>45000000</v>
-      </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="2"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C29:C30"/>
     <mergeCell ref="B2:J4"/>
-    <mergeCell ref="B26:J28"/>
-    <mergeCell ref="D32:E33"/>
-    <mergeCell ref="D37:E38"/>
-    <mergeCell ref="B23:J25"/>
+    <mergeCell ref="B18:J20"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="D29:E30"/>
+    <mergeCell ref="B15:J17"/>
   </mergeCells>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D24">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2082,13 +2094,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="فقط از لیست کشویی می‌تونی انتخاب کنی" sqref="E13:E21" xr:uid="{C8D99532-0EFE-4DF2-A303-3112DA28F473}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="فقط از لیست کشویی می‌تونی انتخاب کنی" sqref="E13" xr:uid="{C8D99532-0EFE-4DF2-A303-3112DA28F473}">
       <formula1>L_CostCenter</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="فقط از لیست کشویی می‌تونی انتخاب کنی" sqref="H13:H21" xr:uid="{3F56F5B5-0239-4D46-9AD2-A7E480B61615}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="فقط از لیست کشویی می‌تونی انتخاب کنی" sqref="H13" xr:uid="{3F56F5B5-0239-4D46-9AD2-A7E480B61615}">
       <formula1>L_PayCenter</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="دارد یا ندارد را انتخاب کنید" sqref="C13:C21" xr:uid="{DD423E57-35DD-4B47-9614-D385FBBEA787}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="دارد یا ندارد را انتخاب کنید" sqref="C13" xr:uid="{DD423E57-35DD-4B47-9614-D385FBBEA787}">
       <formula1>"دارد, ندارد"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2114,7 +2126,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D32</xm:sqref>
+          <xm:sqref>D24</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2129,7 +2141,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E822285D-3B26-4307-93D3-1D45634A4464}">
-  <dimension ref="B2:I5"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="B2:J5"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -2142,32 +2157,35 @@
     <col min="3" max="3" width="3.125" style="16" customWidth="1"/>
     <col min="4" max="4" width="20.625" style="16" customWidth="1"/>
     <col min="5" max="5" width="3.125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="20.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="3.125" style="16" customWidth="1"/>
-    <col min="8" max="9" width="20.625" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
+    <col min="6" max="7" width="20.625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="3.125" style="16" customWidth="1"/>
+    <col min="9" max="10" width="20.625" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="G2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="J2" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D3" s="18">
         <v>50000000</v>
@@ -2175,23 +2193,23 @@
       <c r="F3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="F4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="I4" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="F5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="I5" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2202,4 +2220,504 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E101903C-C11E-470E-BCC2-E523E7BBC3E9}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="B2:J33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="20.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="40.625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="20" t="str">
+        <f>_xlfn.CONCAT("تنخواه شماره ", P_Number, " ", P_Name)</f>
+        <v>تنخواه شماره 1 محمد محمدی</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="10"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="10"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="11">
+        <f t="shared" ref="B13" si="0">ROW()-12</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="13">
+        <f>SUBTOTAL(109,T_Form5[مبلغ])</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="2"/>
+      <c r="C24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="22">
+        <f>(SUM(T_Form5[مبلغ]) + P_Remaining) / P_Capacity</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="2"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="2"/>
+      <c r="C29" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="23">
+        <f>T_Form5[[#Totals],[مبلغ]]</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="2"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B2:J4"/>
+    <mergeCell ref="B15:J17"/>
+    <mergeCell ref="B18:J20"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:E30"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{57C6E5C1-22D4-4035-8840-F246519FFE66}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="دارد یا ندارد را انتخاب کنید" sqref="C13" xr:uid="{5884453D-5E48-46F2-A6B7-765C83811C74}">
+      <formula1>"دارد, ندارد"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="فقط از لیست کشویی می‌تونی انتخاب کنی" sqref="H13" xr:uid="{9C368150-A09B-4E50-9358-1E2C4545954B}">
+      <formula1>L_PayCenter</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="فقط از لیست کشویی می‌تونی انتخاب کنی" sqref="E13" xr:uid="{3E6BB2AE-57C2-414F-87E6-2C93A45C5AA6}">
+      <formula1>L_CostCenter</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{57C6E5C1-22D4-4035-8840-F246519FFE66}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="0" tint="-0.249977111117893"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D24</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
 </file>